--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H2">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I2">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J2">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.3442741098935</v>
+        <v>4.344454</v>
       </c>
       <c r="N2">
-        <v>4.3442741098935</v>
+        <v>8.688908</v>
       </c>
       <c r="O2">
-        <v>0.07459182210593297</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P2">
-        <v>0.07459182210593297</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q2">
-        <v>26.71601619443441</v>
+        <v>29.175628315762</v>
       </c>
       <c r="R2">
-        <v>26.71601619443441</v>
+        <v>116.702513263048</v>
       </c>
       <c r="S2">
-        <v>0.01741736867090271</v>
+        <v>0.01526966340449396</v>
       </c>
       <c r="T2">
-        <v>0.01741736867090271</v>
+        <v>0.01026798558432416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H3">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I3">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J3">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.9104196133373</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N3">
-        <v>22.9104196133373</v>
+        <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3933752569338282</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P3">
-        <v>0.3933752569338282</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q3">
-        <v>140.892385224332</v>
+        <v>162.4172905921263</v>
       </c>
       <c r="R3">
-        <v>140.892385224332</v>
+        <v>974.503743552758</v>
       </c>
       <c r="S3">
-        <v>0.09185406231660609</v>
+        <v>0.08500441983872589</v>
       </c>
       <c r="T3">
-        <v>0.09185406231660609</v>
+        <v>0.08574100172217927</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H4">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I4">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J4">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.743134322622252</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N4">
-        <v>0.743134322622252</v>
+        <v>0.430342</v>
       </c>
       <c r="O4">
-        <v>0.01275972505225066</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P4">
-        <v>0.01275972505225066</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q4">
-        <v>4.570058908714405</v>
+        <v>0.9633353420753333</v>
       </c>
       <c r="R4">
-        <v>4.570058908714405</v>
+        <v>5.780012052452</v>
       </c>
       <c r="S4">
-        <v>0.002979426284275286</v>
+        <v>0.0005041813070807624</v>
       </c>
       <c r="T4">
-        <v>0.002979426284275286</v>
+        <v>0.0005085501483419122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +720,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H5">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I5">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J5">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.30518011884588</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N5">
-        <v>4.30518011884588</v>
+        <v>3.215092</v>
       </c>
       <c r="O5">
-        <v>0.07392057255954868</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P5">
-        <v>0.07392057255954868</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q5">
-        <v>26.47559957441618</v>
+        <v>7.197093826825334</v>
       </c>
       <c r="R5">
-        <v>26.47559957441618</v>
+        <v>43.182562960952</v>
       </c>
       <c r="S5">
-        <v>0.01726063029812308</v>
+        <v>0.003766746650210537</v>
       </c>
       <c r="T5">
-        <v>0.01726063029812308</v>
+        <v>0.003799386333504272</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.14970775752669</v>
+        <v>6.715603</v>
       </c>
       <c r="H6">
-        <v>6.14970775752669</v>
+        <v>13.431206</v>
       </c>
       <c r="I6">
-        <v>0.2335023891247369</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J6">
-        <v>0.2335023891247369</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.9376137592956</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N6">
-        <v>25.9376137592956</v>
+        <v>14.125759</v>
       </c>
       <c r="O6">
-        <v>0.4453526233484394</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P6">
-        <v>0.4453526233484394</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q6">
-        <v>159.5087445472712</v>
+        <v>31.62099650589234</v>
       </c>
       <c r="R6">
-        <v>159.5087445472712</v>
+        <v>189.725979035354</v>
       </c>
       <c r="S6">
-        <v>0.1039909015548297</v>
+        <v>0.01654949699571003</v>
       </c>
       <c r="T6">
-        <v>0.1039909015548297</v>
+        <v>0.01669290200559579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.87227474238038</v>
+        <v>6.715603</v>
       </c>
       <c r="H7">
-        <v>1.87227474238038</v>
+        <v>13.431206</v>
       </c>
       <c r="I7">
-        <v>0.07108965867665015</v>
+        <v>0.2130751263197567</v>
       </c>
       <c r="J7">
-        <v>0.07108965867665015</v>
+        <v>0.178861592654224</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.3442741098935</v>
+        <v>26.1699</v>
       </c>
       <c r="N7">
-        <v>4.3442741098935</v>
+        <v>52.3398</v>
       </c>
       <c r="O7">
-        <v>0.07459182210593297</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P7">
-        <v>0.07459182210593297</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q7">
-        <v>8.133674689930608</v>
+        <v>175.7466589497</v>
       </c>
       <c r="R7">
-        <v>8.133674689930608</v>
+        <v>702.9866357988</v>
       </c>
       <c r="S7">
-        <v>0.005302707173580183</v>
+        <v>0.09198061812353553</v>
       </c>
       <c r="T7">
-        <v>0.005302707173580183</v>
+        <v>0.0618517668602786</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H8">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I8">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J8">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.9104196133373</v>
+        <v>4.344454</v>
       </c>
       <c r="N8">
-        <v>22.9104196133373</v>
+        <v>8.688908</v>
       </c>
       <c r="O8">
-        <v>0.3933752569338282</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P8">
-        <v>0.3933752569338282</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q8">
-        <v>42.8945999793875</v>
+        <v>8.863166946242666</v>
       </c>
       <c r="R8">
-        <v>42.8945999793875</v>
+        <v>53.17900167745599</v>
       </c>
       <c r="S8">
-        <v>0.0279649127472654</v>
+        <v>0.004638720184608556</v>
       </c>
       <c r="T8">
-        <v>0.0279649127472654</v>
+        <v>0.004678915709228036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,55 +968,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H9">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I9">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J9">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.743134322622252</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N9">
-        <v>0.743134322622252</v>
+        <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.01275972505225066</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P9">
-        <v>0.01275972505225066</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q9">
-        <v>1.391351622441595</v>
+        <v>49.34020772045289</v>
       </c>
       <c r="R9">
-        <v>1.391351622441595</v>
+        <v>444.061869484076</v>
       </c>
       <c r="S9">
-        <v>0.0009070844987724012</v>
+        <v>0.02582320956536536</v>
       </c>
       <c r="T9">
-        <v>0.0009070844987724012</v>
+        <v>0.03907045998343774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H10">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I10">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J10">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.30518011884588</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N10">
-        <v>4.30518011884588</v>
+        <v>0.430342</v>
       </c>
       <c r="O10">
-        <v>0.07392057255954868</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P10">
-        <v>0.07392057255954868</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q10">
-        <v>8.060479997913303</v>
+        <v>0.2926484348382222</v>
       </c>
       <c r="R10">
-        <v>8.060479997913303</v>
+        <v>2.633835913544</v>
       </c>
       <c r="S10">
-        <v>0.005254988272440866</v>
+        <v>0.0001531635599229742</v>
       </c>
       <c r="T10">
-        <v>0.005254988272440866</v>
+        <v>0.0002317361334865799</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,122 +1092,122 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.87227474238038</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H11">
-        <v>1.87227474238038</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I11">
-        <v>0.07108965867665015</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J11">
-        <v>0.07108965867665015</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.9376137592956</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N11">
-        <v>25.9376137592956</v>
+        <v>3.215092</v>
       </c>
       <c r="O11">
-        <v>0.4453526233484394</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P11">
-        <v>0.4453526233484394</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q11">
-        <v>48.56233911914698</v>
+        <v>2.186381161171556</v>
       </c>
       <c r="R11">
-        <v>48.56233911914698</v>
+        <v>19.677430450544</v>
       </c>
       <c r="S11">
-        <v>0.03165996598459129</v>
+        <v>0.001144287418378581</v>
       </c>
       <c r="T11">
-        <v>0.03165996598459129</v>
+        <v>0.001731304378572473</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.154272273841871</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H12">
-        <v>9.154272273841871</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I12">
-        <v>0.3475847196192782</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J12">
-        <v>0.3475847196192782</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.3442741098935</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N12">
-        <v>4.3442741098935</v>
+        <v>14.125759</v>
       </c>
       <c r="O12">
-        <v>0.07459182210593297</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P12">
-        <v>0.07459182210593297</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q12">
-        <v>39.76866803416714</v>
+        <v>9.606037203554223</v>
       </c>
       <c r="R12">
-        <v>39.76866803416714</v>
+        <v>86.45433483198799</v>
       </c>
       <c r="S12">
-        <v>0.02592697757258179</v>
+        <v>0.0050275165683433</v>
       </c>
       <c r="T12">
-        <v>0.02592697757258179</v>
+        <v>0.007606621647952691</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,55 +1216,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.154272273841871</v>
+        <v>2.040110666666667</v>
       </c>
       <c r="H13">
-        <v>9.154272273841871</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I13">
-        <v>0.3475847196192782</v>
+        <v>0.06472938290221787</v>
       </c>
       <c r="J13">
-        <v>0.3475847196192782</v>
+        <v>0.08150365120545483</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.9104196133373</v>
+        <v>26.1699</v>
       </c>
       <c r="N13">
-        <v>22.9104196133373</v>
+        <v>52.3398</v>
       </c>
       <c r="O13">
-        <v>0.3933752569338282</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P13">
-        <v>0.3933752569338282</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q13">
-        <v>209.7282190484567</v>
+        <v>53.38949213559999</v>
       </c>
       <c r="R13">
-        <v>209.7282190484567</v>
+        <v>320.3369528136</v>
       </c>
       <c r="S13">
-        <v>0.1367312283865062</v>
+        <v>0.0279424856055991</v>
       </c>
       <c r="T13">
-        <v>0.1367312283865062</v>
+        <v>0.0281846133527773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,55 +1278,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H14">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I14">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J14">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.743134322622252</v>
+        <v>4.344454</v>
       </c>
       <c r="N14">
-        <v>0.743134322622252</v>
+        <v>8.688908</v>
       </c>
       <c r="O14">
-        <v>0.01275972505225066</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P14">
-        <v>0.01275972505225066</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q14">
-        <v>6.802853925321141</v>
+        <v>43.520789512154</v>
       </c>
       <c r="R14">
-        <v>6.802853925321141</v>
+        <v>261.124737072924</v>
       </c>
       <c r="S14">
-        <v>0.004435085454705624</v>
+        <v>0.02277749770308814</v>
       </c>
       <c r="T14">
-        <v>0.004435085454705624</v>
+        <v>0.02297486970080693</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,55 +1340,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H15">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I15">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J15">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.30518011884588</v>
+        <v>24.18506433333333</v>
       </c>
       <c r="N15">
-        <v>4.30518011884588</v>
+        <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.07392057255954868</v>
+        <v>0.3989410744788757</v>
       </c>
       <c r="P15">
-        <v>0.07392057255954868</v>
+        <v>0.4793706711978917</v>
       </c>
       <c r="Q15">
-        <v>39.41079099584609</v>
+        <v>242.2751153974476</v>
       </c>
       <c r="R15">
-        <v>39.41079099584609</v>
+        <v>2180.476038577029</v>
       </c>
       <c r="S15">
-        <v>0.02569366148720723</v>
+        <v>0.1267996501520189</v>
       </c>
       <c r="T15">
-        <v>0.02569366148720723</v>
+        <v>0.1918475952665052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,60 +1402,60 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.154272273841871</v>
+        <v>10.017551</v>
       </c>
       <c r="H16">
-        <v>9.154272273841871</v>
+        <v>30.052653</v>
       </c>
       <c r="I16">
-        <v>0.3475847196192782</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J16">
-        <v>0.3475847196192782</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>25.9376137592956</v>
+        <v>0.1434473333333333</v>
       </c>
       <c r="N16">
-        <v>25.9376137592956</v>
+        <v>0.430342</v>
       </c>
       <c r="O16">
-        <v>0.4453526233484394</v>
+        <v>0.002366213812888463</v>
       </c>
       <c r="P16">
-        <v>0.4453526233484394</v>
+        <v>0.002843260762667162</v>
       </c>
       <c r="Q16">
-        <v>237.4399784863391</v>
+        <v>1.436990977480667</v>
       </c>
       <c r="R16">
-        <v>237.4399784863391</v>
+        <v>12.932918797326</v>
       </c>
       <c r="S16">
-        <v>0.1547977667182773</v>
+        <v>0.0007520786974644268</v>
       </c>
       <c r="T16">
-        <v>0.1547977667182773</v>
+        <v>0.001137893435721112</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1461,60 +1464,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.160553944047599</v>
+        <v>10.017551</v>
       </c>
       <c r="H17">
-        <v>9.160553944047599</v>
+        <v>30.052653</v>
       </c>
       <c r="I17">
-        <v>0.3478232325793348</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J17">
-        <v>0.3478232325793348</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.3442741098935</v>
+        <v>1.071697333333334</v>
       </c>
       <c r="N17">
-        <v>4.3442741098935</v>
+        <v>3.215092</v>
       </c>
       <c r="O17">
-        <v>0.07459182210593297</v>
+        <v>0.01767802143436429</v>
       </c>
       <c r="P17">
-        <v>0.07459182210593297</v>
+        <v>0.0212420468649704</v>
       </c>
       <c r="Q17">
-        <v>39.79595733140878</v>
+        <v>10.73578269323067</v>
       </c>
       <c r="R17">
-        <v>39.79595733140878</v>
+        <v>96.622044239076</v>
       </c>
       <c r="S17">
-        <v>0.0259447686888683</v>
+        <v>0.005618792038862811</v>
       </c>
       <c r="T17">
-        <v>0.0259447686888683</v>
+        <v>0.008501220150576661</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1523,117 +1526,117 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.160553944047599</v>
+        <v>10.017551</v>
       </c>
       <c r="H18">
-        <v>9.160553944047599</v>
+        <v>30.052653</v>
       </c>
       <c r="I18">
-        <v>0.3478232325793348</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J18">
-        <v>0.3478232325793348</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.9104196133373</v>
+        <v>4.708586333333334</v>
       </c>
       <c r="N18">
-        <v>22.9104196133373</v>
+        <v>14.125759</v>
       </c>
       <c r="O18">
-        <v>0.3933752569338282</v>
+        <v>0.07766977441972553</v>
       </c>
       <c r="P18">
-        <v>0.3933752569338282</v>
+        <v>0.09332859982895587</v>
       </c>
       <c r="Q18">
-        <v>209.8721347487425</v>
+        <v>47.16850373206967</v>
       </c>
       <c r="R18">
-        <v>209.8721347487425</v>
+        <v>424.516533588627</v>
       </c>
       <c r="S18">
-        <v>0.1368250534834505</v>
+        <v>0.02468660374636081</v>
       </c>
       <c r="T18">
-        <v>0.1368250534834505</v>
+        <v>0.03735077784803347</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.160553944047599</v>
+        <v>10.017551</v>
       </c>
       <c r="H19">
-        <v>9.160553944047599</v>
+        <v>30.052653</v>
       </c>
       <c r="I19">
-        <v>0.3478232325793348</v>
+        <v>0.3178405490526472</v>
       </c>
       <c r="J19">
-        <v>0.3478232325793348</v>
+        <v>0.4002072024704813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.743134322622252</v>
+        <v>26.1699</v>
       </c>
       <c r="N19">
-        <v>0.743134322622252</v>
+        <v>52.3398</v>
       </c>
       <c r="O19">
-        <v>0.01275972505225066</v>
+        <v>0.4316816313205064</v>
       </c>
       <c r="P19">
-        <v>0.01275972505225066</v>
+        <v>0.3458079845003432</v>
       </c>
       <c r="Q19">
-        <v>6.807522050054412</v>
+        <v>262.1583079149</v>
       </c>
       <c r="R19">
-        <v>6.807522050054412</v>
+        <v>1572.9498474894</v>
       </c>
       <c r="S19">
-        <v>0.004438128814497346</v>
+        <v>0.1372059267148522</v>
       </c>
       <c r="T19">
-        <v>0.004438128814497346</v>
+        <v>0.1383948460688379</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1650,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.160553944047599</v>
+        <v>12.7442715</v>
       </c>
       <c r="H20">
-        <v>9.160553944047599</v>
+        <v>25.488543</v>
       </c>
       <c r="I20">
-        <v>0.3478232325793348</v>
+        <v>0.4043549417253782</v>
       </c>
       <c r="J20">
-        <v>0.3478232325793348</v>
+        <v>0.3394275536698397</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.30518011884588</v>
+        <v>4.344454</v>
       </c>
       <c r="N20">
-        <v>4.30518011884588</v>
+        <v>8.688908</v>
       </c>
       <c r="O20">
-        <v>0.07392057255954868</v>
+        <v>0.07166328453363975</v>
       </c>
       <c r="P20">
-        <v>0.07392057255954868</v>
+        <v>0.05740743684517152</v>
       </c>
       <c r="Q20">
-        <v>39.43783471752894</v>
+        <v>55.36690129526099</v>
       </c>
       <c r="R20">
-        <v>39.43783471752894</v>
+        <v>221.467605181044</v>
       </c>
       <c r="S20">
-        <v>0.02571129250177749</v>
+        <v>0.0289774032414491</v>
       </c>
       <c r="T20">
-        <v>0.02571129250177749</v>
+        <v>0.01948566585081239</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1712,303 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>12.7442715</v>
+      </c>
+      <c r="H21">
+        <v>25.488543</v>
+      </c>
+      <c r="I21">
+        <v>0.4043549417253782</v>
+      </c>
+      <c r="J21">
+        <v>0.3394275536698397</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.18506433333333</v>
+      </c>
+      <c r="N21">
+        <v>72.555193</v>
+      </c>
+      <c r="O21">
+        <v>0.3989410744788757</v>
+      </c>
+      <c r="P21">
+        <v>0.4793706711978917</v>
+      </c>
+      <c r="Q21">
+        <v>308.2210261089665</v>
+      </c>
+      <c r="R21">
+        <v>1849.326156653799</v>
+      </c>
+      <c r="S21">
+        <v>0.1613137949227655</v>
+      </c>
+      <c r="T21">
+        <v>0.1627116142257695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>9.160553944047599</v>
-      </c>
-      <c r="H21">
-        <v>9.160553944047599</v>
-      </c>
-      <c r="I21">
-        <v>0.3478232325793348</v>
-      </c>
-      <c r="J21">
-        <v>0.3478232325793348</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>25.9376137592956</v>
-      </c>
-      <c r="N21">
-        <v>25.9376137592956</v>
-      </c>
-      <c r="O21">
-        <v>0.4453526233484394</v>
-      </c>
-      <c r="P21">
-        <v>0.4453526233484394</v>
-      </c>
-      <c r="Q21">
-        <v>237.6029100218986</v>
-      </c>
-      <c r="R21">
-        <v>237.6029100218986</v>
-      </c>
-      <c r="S21">
-        <v>0.1549039890907411</v>
-      </c>
-      <c r="T21">
-        <v>0.1549039890907411</v>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12.7442715</v>
+      </c>
+      <c r="H22">
+        <v>25.488543</v>
+      </c>
+      <c r="I22">
+        <v>0.4043549417253782</v>
+      </c>
+      <c r="J22">
+        <v>0.3394275536698397</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1434473333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.430342</v>
+      </c>
+      <c r="O22">
+        <v>0.002366213812888463</v>
+      </c>
+      <c r="P22">
+        <v>0.002843260762667162</v>
+      </c>
+      <c r="Q22">
+        <v>1.828131761951</v>
+      </c>
+      <c r="R22">
+        <v>10.968790571706</v>
+      </c>
+      <c r="S22">
+        <v>0.0009567902484202994</v>
+      </c>
+      <c r="T22">
+        <v>0.0009650810451175575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12.7442715</v>
+      </c>
+      <c r="H23">
+        <v>25.488543</v>
+      </c>
+      <c r="I23">
+        <v>0.4043549417253782</v>
+      </c>
+      <c r="J23">
+        <v>0.3394275536698397</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.071697333333334</v>
+      </c>
+      <c r="N23">
+        <v>3.215092</v>
+      </c>
+      <c r="O23">
+        <v>0.01767802143436429</v>
+      </c>
+      <c r="P23">
+        <v>0.0212420468649704</v>
+      </c>
+      <c r="Q23">
+        <v>13.658001781826</v>
+      </c>
+      <c r="R23">
+        <v>81.94801069095601</v>
+      </c>
+      <c r="S23">
+        <v>0.007148195326912358</v>
+      </c>
+      <c r="T23">
+        <v>0.00721013600231699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>12.7442715</v>
+      </c>
+      <c r="H24">
+        <v>25.488543</v>
+      </c>
+      <c r="I24">
+        <v>0.4043549417253782</v>
+      </c>
+      <c r="J24">
+        <v>0.3394275536698397</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.708586333333334</v>
+      </c>
+      <c r="N24">
+        <v>14.125759</v>
+      </c>
+      <c r="O24">
+        <v>0.07766977441972553</v>
+      </c>
+      <c r="P24">
+        <v>0.09332859982895587</v>
+      </c>
+      <c r="Q24">
+        <v>60.00750261318951</v>
+      </c>
+      <c r="R24">
+        <v>360.045015679137</v>
+      </c>
+      <c r="S24">
+        <v>0.03140615710931139</v>
+      </c>
+      <c r="T24">
+        <v>0.03167829832737391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>12.7442715</v>
+      </c>
+      <c r="H25">
+        <v>25.488543</v>
+      </c>
+      <c r="I25">
+        <v>0.4043549417253782</v>
+      </c>
+      <c r="J25">
+        <v>0.3394275536698397</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>26.1699</v>
+      </c>
+      <c r="N25">
+        <v>52.3398</v>
+      </c>
+      <c r="O25">
+        <v>0.4316816313205064</v>
+      </c>
+      <c r="P25">
+        <v>0.3458079845003432</v>
+      </c>
+      <c r="Q25">
+        <v>333.51631072785</v>
+      </c>
+      <c r="R25">
+        <v>1334.0652429114</v>
+      </c>
+      <c r="S25">
+        <v>0.1745526008765196</v>
+      </c>
+      <c r="T25">
+        <v>0.1173767582184494</v>
       </c>
     </row>
   </sheetData>
